--- a/public/assets/file/employee.xlsx
+++ b/public/assets/file/employee.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\HRIS\public\assets\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmana\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE803F8-76EF-408F-AE98-DE487042E0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64FB354-D871-46DE-B996-28C5E9AB4AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A7DAAE11-8A90-44CB-A409-3BD2EB8714EC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>No.</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Employment Type</t>
   </si>
   <si>
-    <t>alif</t>
-  </si>
-  <si>
     <t>firmansyah</t>
   </si>
   <si>
@@ -109,13 +106,43 @@
   </si>
   <si>
     <t xml:space="preserve">HARIAN </t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>GENERAL MANAGER</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>GROUP LEADER</t>
+  </si>
+  <si>
+    <t>STAFF</t>
+  </si>
+  <si>
+    <t>Tersenyum Group</t>
+  </si>
+  <si>
+    <t>alifba</t>
+  </si>
+  <si>
+    <t>alifba@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="000000000000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +179,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2D2D2D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,31 +226,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" readingOrder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,10 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF60744-E6FE-4D60-ABFA-A4CB32E306DB}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,194 +587,305 @@
     <col min="1" max="1" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7">
+        <v>44562</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10">
+        <v>83891011121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7">
+        <v>44563</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10">
+        <v>83891011122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7">
+        <v>44564</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="10">
+        <v>83891011123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7">
+        <v>44565</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10">
+        <v>83891011124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="7">
+        <v>44566</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10">
+        <v>83891011125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="7">
+        <v>44567</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="10">
+        <v>83891011126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="7">
+        <v>44568</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="H10" s="10">
+        <v>83891011127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7">
+        <v>44569</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H11" s="10">
+        <v>83891011128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="7">
+        <v>44570</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H12" s="10">
+        <v>83891011129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="7">
+        <v>44571</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="H13" s="10">
+        <v>83891011130</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{631E9B55-A1D7-40A5-B05A-4251F4C40682}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/assets/file/employee.xlsx
+++ b/public/assets/file/employee.xlsx
@@ -5,15 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmana\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\HRIS\public\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64FB354-D871-46DE-B996-28C5E9AB4AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CF3C84-87B0-4FD0-9A2B-C67BC9931C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A7DAAE11-8A90-44CB-A409-3BD2EB8714EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{A7DAAE11-8A90-44CB-A409-3BD2EB8714EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TEMPLATE" sheetId="1" r:id="rId1"/>
+    <sheet name="POSITION" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -140,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="000000000000"/>
+    <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -241,12 +242,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -257,8 +252,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,7 +579,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -595,12 +596,12 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -634,22 +635,22 @@
       <c r="B4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>44562</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>83891011121</v>
       </c>
     </row>
@@ -660,19 +661,19 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>44563</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>83891011122</v>
       </c>
     </row>
@@ -683,19 +684,19 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>44564</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>83891011123</v>
       </c>
     </row>
@@ -706,19 +707,19 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>44565</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>83891011124</v>
       </c>
     </row>
@@ -729,19 +730,19 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>44566</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>83891011125</v>
       </c>
     </row>
@@ -752,19 +753,19 @@
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>44567</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="8">
         <v>83891011126</v>
       </c>
     </row>
@@ -775,19 +776,19 @@
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>44568</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>83891011127</v>
       </c>
     </row>
@@ -798,19 +799,19 @@
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>44569</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="8">
         <v>83891011128</v>
       </c>
     </row>
@@ -821,19 +822,19 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>44570</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>83891011129</v>
       </c>
     </row>
@@ -844,39 +845,39 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>44571</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>83891011130</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="7"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="7"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="7"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="7"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="7"/>
+      <c r="E19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -888,4 +889,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC673DF-90C3-4F4A-B8D8-4EBD39DEDCC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>